--- a/admin/ProjectRubric1of3.xlsx
+++ b/admin/ProjectRubric1of3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elari\Documents\Repos\CSCI_S71\Teamify\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5820E11-ED56-4900-8E01-43EB4A671496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF931E-1AB8-4E3B-B1E6-82689995D4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22155" yWindow="-15795" windowWidth="19530" windowHeight="15705" xr2:uid="{240F924D-48B8-43CB-A5F6-3B6DFA99720D}"/>
+    <workbookView xWindow="18345" yWindow="-13365" windowWidth="15300" windowHeight="12150" xr2:uid="{240F924D-48B8-43CB-A5F6-3B6DFA99720D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>You have self-organized into a team. You have joined one of the "Scrum Teams" groups in Canvas.</t>
   </si>
@@ -137,9 +137,6 @@
     <t xml:space="preserve">Date </t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Specification met as stated</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>A total of 19 Product Backlog items were identified</t>
   </si>
   <si>
-    <t xml:space="preserve">The repository is created but has not yet been submitted as the solution.  Eric will perform an Assignment submission for the Team once the text is reviewed.  The team developed an assignment submission together that Eric posted 6/28/20, which will be revised with the new work.    </t>
-  </si>
-  <si>
     <t>User stories are provided for all items.  Acceptance criteria are identified for all items and will possibly be tunringed into tasks on the board</t>
   </si>
   <si>
@@ -176,10 +170,13 @@
     <t>Specification met as stated - The Fibonnaci sequence was used for point values</t>
   </si>
   <si>
-    <t>An Affinity estimation event was complete - The activity will be documented in the README</t>
-  </si>
-  <si>
-    <t>All team members took part in the estimation activity since all team members are also part of the Development Team. - This will be documented in the README</t>
+    <t>An Affinity estimation event was complete - The activity was documented in the README</t>
+  </si>
+  <si>
+    <t>All team members took part in the estimation activity since all team members are also part of the Development Team. - This was documented in the README</t>
+  </si>
+  <si>
+    <t>The repository is created and has been submitted as the solution.  Eric performed an Assignment submission for the Team once the text was reviewed.  The team developed an assignment submission together that Eric posted 6/28/20, which was revised with the new work.    - Complete</t>
   </si>
 </sst>
 </file>
@@ -623,7 +620,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -677,7 +674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="119.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -685,10 +682,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44013</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -705,7 +705,7 @@
         <v>44009</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -722,7 +722,7 @@
         <v>44009</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -739,7 +739,7 @@
         <v>44009</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -756,7 +756,7 @@
         <v>44009</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -773,7 +773,7 @@
         <v>44009</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -790,7 +790,7 @@
         <v>44009</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -807,7 +807,7 @@
         <v>44009</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -824,7 +824,7 @@
         <v>44009</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -841,7 +841,7 @@
         <v>44009</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -858,7 +858,7 @@
         <v>44010</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -875,7 +875,7 @@
         <v>44009</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -892,7 +892,7 @@
         <v>44012</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -909,7 +909,7 @@
         <v>44012</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -926,7 +926,7 @@
         <v>44012</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -937,10 +937,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44013</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -951,10 +954,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44013</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
